--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1607,7 +1607,7 @@
   </sheetPr>
   <dimension ref="A2:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
@@ -3642,10 +3642,10 @@
   </sheetPr>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,7 +3816,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>173.375</v>
+        <v>172.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4942,8 +4942,12 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="41">
+        <v>45017</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="40"/>
       <c r="E60" s="9"/>
@@ -4952,10 +4956,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H60" s="40"/>
+      <c r="H60" s="40">
+        <v>1</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="48">
+        <v>45030</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
@@ -4991,17 +4999,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>3/16,17,20-24,27-31/2023</t>
+  </si>
+  <si>
+    <t>5/8-12/2023</t>
   </si>
 </sst>
 </file>
@@ -3645,7 +3648,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,7 +3809,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>102.53999999999999</v>
+        <v>97.539999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4966,10 +4969,16 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="41">
+        <v>45047</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="40"/>
+      <c r="D61" s="40">
+        <v>5</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13" t="str">
@@ -4979,7 +4988,9 @@
       <c r="H61" s="40"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
@@ -4999,17 +5010,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K62" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3643,12 +3643,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K62"/>
+  <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,7 +3819,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>172.375</v>
+        <v>171.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4994,7 +4994,9 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C62" s="43"/>
       <c r="D62" s="44"/>
       <c r="E62" s="49"/>
@@ -5003,24 +5005,188 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H62" s="44"/>
+      <c r="H62" s="44">
+        <v>1</v>
+      </c>
       <c r="I62" s="49"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="15"/>
+      <c r="K62" s="50">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="40"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="40"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="40"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="40"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="40"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="40"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="40"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="20"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="44"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>5/8-12/2023</t>
+  </si>
+  <si>
+    <t>5/22-24/2023</t>
+  </si>
+  <si>
+    <t>6/1,2/2023</t>
   </si>
 </sst>
 </file>
@@ -3648,7 +3654,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,7 +3825,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>171.375</v>
+        <v>165.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5016,7 +5022,9 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="40"/>
       <c r="E63" s="9"/>
@@ -5025,14 +5033,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="40"/>
+      <c r="H63" s="40">
+        <v>3</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="40"/>
       <c r="E64" s="9"/>
@@ -5041,10 +5055,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="40"/>
+      <c r="H64" s="40">
+        <v>3</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>

--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADA624F-B2AD-4DCE-8EDA-EA771F9CDCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -315,12 +316,18 @@
   </si>
   <si>
     <t>6/1,2/2023</t>
+  </si>
+  <si>
+    <t>6/14-15/23</t>
+  </si>
+  <si>
+    <t>6/23,26,27/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1238,7 +1245,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1255,25 +1262,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K101" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K101" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1285,25 +1292,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1610,34 +1617,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1658,7 +1665,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1678,7 +1685,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1698,7 +1705,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1706,7 +1713,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1719,7 +1726,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1736,7 +1743,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1780,7 +1787,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>48.75</v>
+        <v>51.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1790,12 +1797,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -1817,7 +1824,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1837,7 +1844,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1857,7 +1864,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1877,7 +1884,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1897,7 +1904,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1917,7 +1924,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1937,7 +1944,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1957,7 +1964,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1977,7 +1984,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1997,7 +2004,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -2017,7 +2024,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2037,7 +2044,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2061,7 +2068,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>55</v>
       </c>
@@ -2079,7 +2086,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2099,7 +2106,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2119,7 +2126,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2139,7 +2146,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2159,7 +2166,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2179,7 +2186,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2199,7 +2206,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2219,7 +2226,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2239,7 +2246,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2259,7 +2266,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2279,7 +2286,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2299,7 +2306,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2323,7 +2330,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>61</v>
       </c>
@@ -2341,7 +2348,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2361,7 +2368,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2381,7 +2388,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="48"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2401,7 +2408,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2421,7 +2428,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2441,7 +2448,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2461,7 +2468,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2481,7 +2488,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2501,7 +2508,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2521,7 +2528,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2541,7 +2548,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="48"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2561,7 +2568,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2585,7 +2592,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>69</v>
       </c>
@@ -2603,7 +2610,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2623,7 +2630,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2643,7 +2650,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2663,7 +2670,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2683,7 +2690,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2703,7 +2710,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2723,7 +2730,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2743,7 +2750,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2763,7 +2770,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2783,7 +2790,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2803,7 +2810,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2823,7 +2830,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2847,7 +2854,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>70</v>
       </c>
@@ -2865,7 +2872,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2885,7 +2892,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2905,7 +2912,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <f>EDATE(A64,1)</f>
         <v>44621</v>
@@ -2926,7 +2933,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <f t="shared" ref="A66:A68" si="0">EDATE(A65,1)</f>
         <v>44652</v>
@@ -2947,7 +2954,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2968,7 +2975,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2989,7 +2996,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -3009,7 +3016,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -3029,7 +3036,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="48"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3049,7 +3056,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3069,7 +3076,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3089,7 +3096,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="48"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3113,7 +3120,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>77</v>
       </c>
@@ -3131,7 +3138,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3151,7 +3158,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3171,7 +3178,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3197,43 +3204,47 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -3251,7 +3262,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -3269,7 +3280,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -3287,7 +3298,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -3305,7 +3316,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>45200</v>
       </c>
@@ -3323,7 +3334,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <v>45231</v>
       </c>
@@ -3341,7 +3352,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>45261</v>
       </c>
@@ -3359,7 +3370,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
         <v>45292</v>
       </c>
@@ -3377,7 +3388,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>45323</v>
       </c>
@@ -3395,7 +3406,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
         <v>45352</v>
       </c>
@@ -3413,7 +3424,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
         <v>45383</v>
       </c>
@@ -3431,7 +3442,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>45413</v>
       </c>
@@ -3449,7 +3460,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <v>45444</v>
       </c>
@@ -3467,7 +3478,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <v>45474</v>
       </c>
@@ -3485,7 +3496,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
         <v>45505</v>
       </c>
@@ -3503,7 +3514,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
         <v>45536</v>
       </c>
@@ -3521,7 +3532,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41">
         <v>45566</v>
       </c>
@@ -3539,7 +3550,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3555,7 +3566,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3571,7 +3582,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3587,7 +3598,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="42"/>
       <c r="B101" s="15"/>
       <c r="C101" s="43"/>
@@ -3619,10 +3630,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3645,34 +3656,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3693,7 +3704,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3713,7 +3724,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3733,7 +3744,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3741,7 +3752,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3754,7 +3765,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3771,7 +3782,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3806,7 +3817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3815,7 +3826,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>97.539999999999992</v>
+        <v>94.539999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3825,12 +3836,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>165.375</v>
+        <v>163.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3852,7 +3863,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -3874,7 +3885,7 @@
         <v>43105</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -3898,7 +3909,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -3922,7 +3933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="B14" s="15" t="s">
         <v>48</v>
@@ -3944,7 +3955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43252</v>
       </c>
@@ -3968,7 +3979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43282</v>
       </c>
@@ -3992,7 +4003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43313</v>
       </c>
@@ -4016,7 +4027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43344</v>
       </c>
@@ -4040,7 +4051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>55</v>
       </c>
@@ -4058,7 +4069,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43556</v>
       </c>
@@ -4082,7 +4093,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
@@ -4104,7 +4115,7 @@
         <v>43569</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43586</v>
       </c>
@@ -4128,7 +4139,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>43617</v>
       </c>
@@ -4152,7 +4163,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43709</v>
       </c>
@@ -4176,7 +4187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -4198,7 +4209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43739</v>
       </c>
@@ -4220,7 +4231,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -4242,7 +4253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>61</v>
       </c>
@@ -4260,7 +4271,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43831</v>
       </c>
@@ -4284,7 +4295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41"/>
       <c r="B30" s="20" t="s">
         <v>64</v>
@@ -4304,7 +4315,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41"/>
       <c r="B31" s="20" t="s">
         <v>64</v>
@@ -4324,7 +4335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43862</v>
       </c>
@@ -4348,7 +4359,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43983</v>
       </c>
@@ -4372,7 +4383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>44013</v>
       </c>
@@ -4396,7 +4407,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>44075</v>
       </c>
@@ -4420,7 +4431,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -4442,7 +4453,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>44105</v>
       </c>
@@ -4466,7 +4477,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>44166</v>
       </c>
@@ -4490,7 +4501,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>69</v>
       </c>
@@ -4508,7 +4519,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>44197</v>
       </c>
@@ -4530,7 +4541,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>70</v>
       </c>
@@ -4548,7 +4559,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>44562</v>
       </c>
@@ -4570,7 +4581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
       <c r="B43" s="20" t="s">
         <v>47</v>
@@ -4590,7 +4601,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44593</v>
       </c>
@@ -4614,7 +4625,7 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41"/>
       <c r="B45" s="20" t="s">
         <v>60</v>
@@ -4636,7 +4647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
       <c r="B46" s="20" t="s">
         <v>74</v>
@@ -4658,7 +4669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44774</v>
       </c>
@@ -4682,7 +4693,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44835</v>
       </c>
@@ -4706,7 +4717,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>44866</v>
       </c>
@@ -4730,7 +4741,7 @@
         <v>44895</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41"/>
       <c r="B50" s="20" t="s">
         <v>80</v>
@@ -4752,7 +4763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>77</v>
       </c>
@@ -4770,7 +4781,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44927</v>
       </c>
@@ -4792,7 +4803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -4814,7 +4825,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
       <c r="B54" s="20" t="s">
         <v>62</v>
@@ -4836,7 +4847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44958</v>
       </c>
@@ -4860,7 +4871,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="42"/>
       <c r="B56" s="15" t="s">
         <v>45</v>
@@ -4882,7 +4893,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
       <c r="B57" s="20" t="s">
         <v>62</v>
@@ -4904,7 +4915,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44986</v>
       </c>
@@ -4928,7 +4939,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="20" t="s">
         <v>88</v>
@@ -4950,7 +4961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>45017</v>
       </c>
@@ -4974,7 +4985,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>45047</v>
       </c>
@@ -4998,7 +5009,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="42"/>
       <c r="B62" s="15" t="s">
         <v>45</v>
@@ -5020,7 +5031,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
       <c r="B63" s="20" t="s">
         <v>62</v>
@@ -5042,7 +5053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="20" t="s">
         <v>62</v>
@@ -5064,9 +5075,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="20"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="41">
+        <v>45094</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="40"/>
       <c r="E65" s="9"/>
@@ -5075,16 +5090,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="40"/>
+      <c r="H65" s="40">
+        <v>2</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C66" s="13"/>
-      <c r="D66" s="40"/>
+      <c r="D66" s="40">
+        <v>3</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13" t="str">
@@ -5094,9 +5117,11 @@
       <c r="H66" s="40"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5112,7 +5137,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5128,7 +5153,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5144,7 +5169,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5160,7 +5185,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5176,7 +5201,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="42"/>
       <c r="B72" s="15"/>
       <c r="C72" s="43"/>
@@ -5194,23 +5219,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5233,28 +5258,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -5267,7 +5292,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5296,7 +5321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>149.54</v>
       </c>
@@ -5320,7 +5345,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5335,10 +5360,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5358,7 +5383,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5384,7 +5409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5410,7 +5435,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5436,7 +5461,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5462,7 +5487,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5488,7 +5513,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5514,7 +5539,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5540,7 +5565,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5566,7 +5591,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5586,7 +5611,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5606,7 +5631,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5626,7 +5651,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5647,7 +5672,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5668,7 +5693,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5689,7 +5714,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5710,7 +5735,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5731,7 +5756,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5752,7 +5777,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5773,7 +5798,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5794,7 +5819,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5815,7 +5840,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5836,7 +5861,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5857,7 +5882,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5878,7 +5903,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5899,7 +5924,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5920,7 +5945,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5941,7 +5966,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5962,7 +5987,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5983,7 +6008,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -6004,7 +6029,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -6025,7 +6050,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -6046,7 +6071,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -6055,7 +6080,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -6064,7 +6089,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -6073,7 +6098,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -6082,7 +6107,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6091,7 +6116,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6100,7 +6125,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6109,7 +6134,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6118,7 +6143,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6127,7 +6152,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6136,7 +6161,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6145,7 +6170,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6154,7 +6179,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6163,7 +6188,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6172,7 +6197,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6181,7 +6206,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6190,7 +6215,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6199,7 +6224,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6208,7 +6233,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6217,7 +6242,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6226,7 +6251,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6235,7 +6260,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6244,7 +6269,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6253,7 +6278,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6262,7 +6287,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6271,7 +6296,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6280,7 +6305,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6289,7 +6314,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6298,7 +6323,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6307,7 +6332,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADA624F-B2AD-4DCE-8EDA-EA771F9CDCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED1CFF0-4D9B-4901-B325-A51CAAC88EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>6/23,26,27/2023</t>
+  </si>
+  <si>
+    <t>6/28,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1629,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1787,7 +1790,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>52.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1797,7 +1800,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3249,13 +3252,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="9"/>
@@ -3663,9 +3668,9 @@
   <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A56" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3836,7 +3841,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>163.375</v>
+        <v>160.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5122,8 +5127,12 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="41">
+        <v>45110</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C67" s="13"/>
       <c r="D67" s="40"/>
       <c r="E67" s="9"/>
@@ -5132,10 +5141,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="40"/>
+      <c r="H67" s="40">
+        <v>3</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
@@ -5219,17 +5232,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED1CFF0-4D9B-4901-B325-A51CAAC88EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A96E29-4DCC-4004-BC7E-6A7C06748EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,7 +324,19 @@
     <t>6/23,26,27/2023</t>
   </si>
   <si>
-    <t>6/28,29,30/2023</t>
+    <t>6/29,30/2023</t>
+  </si>
+  <si>
+    <t>7/27-31/2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>8/1-4/2023</t>
+  </si>
+  <si>
+    <t>7/24-26/2023</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1641,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80:C81"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1790,7 +1802,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1800,7 +1812,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3272,13 +3284,15 @@
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="9"/>
@@ -3668,9 +3682,9 @@
   <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A56" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A59" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3831,7 +3845,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>94.539999999999992</v>
+        <v>87.539999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3841,7 +3855,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>160.375</v>
+        <v>158.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5142,7 +5156,7 @@
         <v/>
       </c>
       <c r="H67" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
@@ -5152,9 +5166,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="40"/>
+      <c r="D68" s="40">
+        <v>3</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13" t="str">
@@ -5164,13 +5182,19 @@
       <c r="H68" s="40"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="C69" s="13"/>
-      <c r="D69" s="40"/>
+      <c r="D69" s="40">
+        <v>4</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13" t="str">
@@ -5180,11 +5204,17 @@
       <c r="H69" s="40"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="41">
+        <v>45134</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C70" s="13"/>
       <c r="D70" s="40"/>
       <c r="E70" s="9"/>
@@ -5193,10 +5223,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="40"/>
+      <c r="H70" s="40">
+        <v>3</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>

--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A96E29-4DCC-4004-BC7E-6A7C06748EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -337,12 +336,15 @@
   </si>
   <si>
     <t>7/24-26/2023</t>
+  </si>
+  <si>
+    <t>9/4,5/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1260,7 +1262,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1277,25 +1279,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K101" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K101" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1307,25 +1309,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1632,34 +1634,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +1682,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1700,7 +1702,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1720,7 +1722,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1728,7 +1730,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1741,7 +1743,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1758,7 +1760,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1802,7 +1804,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1812,12 +1814,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -1839,7 +1841,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1859,7 +1861,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1879,7 +1881,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1899,7 +1901,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1919,7 +1921,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1939,7 +1941,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1959,7 +1961,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1979,7 +1981,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1999,7 +2001,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -2019,7 +2021,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -2039,7 +2041,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2059,7 +2061,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2083,7 +2085,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>55</v>
       </c>
@@ -2101,7 +2103,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2121,7 +2123,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2141,7 +2143,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2161,7 +2163,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2181,7 +2183,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2201,7 +2203,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2221,7 +2223,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2241,7 +2243,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2261,7 +2263,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2281,7 +2283,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2301,7 +2303,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2321,7 +2323,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2345,7 +2347,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>61</v>
       </c>
@@ -2363,7 +2365,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2383,7 +2385,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2403,7 +2405,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="48"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2423,7 +2425,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2443,7 +2445,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2463,7 +2465,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2483,7 +2485,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2503,7 +2505,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2523,7 +2525,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2543,7 +2545,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2563,7 +2565,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="48"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2583,7 +2585,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2607,7 +2609,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>69</v>
       </c>
@@ -2625,7 +2627,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2645,7 +2647,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2665,7 +2667,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2685,7 +2687,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2705,7 +2707,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2725,7 +2727,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2745,7 +2747,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2765,7 +2767,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2785,7 +2787,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2805,7 +2807,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2825,7 +2827,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2845,7 +2847,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2869,7 +2871,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>70</v>
       </c>
@@ -2887,7 +2889,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2907,7 +2909,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2927,7 +2929,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <f>EDATE(A64,1)</f>
         <v>44621</v>
@@ -2948,7 +2950,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <f t="shared" ref="A66:A68" si="0">EDATE(A65,1)</f>
         <v>44652</v>
@@ -2969,7 +2971,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2990,7 +2992,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -3011,7 +3013,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -3031,7 +3033,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -3051,7 +3053,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="48"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3071,7 +3073,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3091,7 +3093,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3111,7 +3113,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="48"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3135,7 +3137,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>77</v>
       </c>
@@ -3153,7 +3155,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3173,7 +3175,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3193,7 +3195,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
@@ -3239,7 +3241,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
@@ -3259,7 +3261,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -3279,7 +3281,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -3299,25 +3301,27 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -3335,7 +3339,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>45200</v>
       </c>
@@ -3353,7 +3357,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>45231</v>
       </c>
@@ -3371,7 +3375,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>45261</v>
       </c>
@@ -3389,7 +3393,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>45292</v>
       </c>
@@ -3407,7 +3411,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>45323</v>
       </c>
@@ -3425,7 +3429,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>45352</v>
       </c>
@@ -3443,7 +3447,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>45383</v>
       </c>
@@ -3461,7 +3465,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>45413</v>
       </c>
@@ -3479,7 +3483,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
         <v>45444</v>
       </c>
@@ -3497,7 +3501,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>45474</v>
       </c>
@@ -3515,7 +3519,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>45505</v>
       </c>
@@ -3533,7 +3537,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>45536</v>
       </c>
@@ -3551,7 +3555,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
         <v>45566</v>
       </c>
@@ -3569,7 +3573,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3585,7 +3589,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3601,7 +3605,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3617,7 +3621,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
       <c r="B101" s="15"/>
       <c r="C101" s="43"/>
@@ -3649,10 +3653,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3675,34 +3679,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A59" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3723,7 +3727,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3743,7 +3747,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3763,7 +3767,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3771,7 +3775,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3784,7 +3788,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3801,7 +3805,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3836,7 +3840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3855,12 +3859,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>158.375</v>
+        <v>155.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3882,7 +3886,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>43105</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -3928,7 +3932,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -3952,7 +3956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="15" t="s">
         <v>48</v>
@@ -3974,7 +3978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43252</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43282</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43313</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43344</v>
       </c>
@@ -4070,7 +4074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>55</v>
       </c>
@@ -4088,7 +4092,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43556</v>
       </c>
@@ -4112,7 +4116,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
@@ -4134,7 +4138,7 @@
         <v>43569</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43586</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>43617</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43709</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -4228,7 +4232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43739</v>
       </c>
@@ -4250,7 +4254,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -4272,7 +4276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>61</v>
       </c>
@@ -4290,7 +4294,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43831</v>
       </c>
@@ -4314,7 +4318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="20" t="s">
         <v>64</v>
@@ -4334,7 +4338,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="20" t="s">
         <v>64</v>
@@ -4354,7 +4358,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43862</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43983</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>44013</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>44075</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -4472,7 +4476,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>44105</v>
       </c>
@@ -4496,7 +4500,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>44166</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>69</v>
       </c>
@@ -4538,7 +4542,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>44197</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>70</v>
       </c>
@@ -4578,7 +4582,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>44562</v>
       </c>
@@ -4600,7 +4604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="20" t="s">
         <v>47</v>
@@ -4620,7 +4624,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44593</v>
       </c>
@@ -4644,7 +4648,7 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="20" t="s">
         <v>60</v>
@@ -4666,7 +4670,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="20" t="s">
         <v>74</v>
@@ -4688,7 +4692,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44774</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44835</v>
       </c>
@@ -4736,7 +4740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>44866</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>44895</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="20" t="s">
         <v>80</v>
@@ -4782,7 +4786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>77</v>
       </c>
@@ -4800,7 +4804,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44927</v>
       </c>
@@ -4822,7 +4826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -4844,7 +4848,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="20" t="s">
         <v>62</v>
@@ -4866,7 +4870,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44958</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="15" t="s">
         <v>45</v>
@@ -4912,7 +4916,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="20" t="s">
         <v>62</v>
@@ -4934,7 +4938,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44986</v>
       </c>
@@ -4958,7 +4962,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="20" t="s">
         <v>88</v>
@@ -4980,7 +4984,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>45017</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>45047</v>
       </c>
@@ -5028,7 +5032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="B62" s="15" t="s">
         <v>45</v>
@@ -5050,7 +5054,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="20" t="s">
         <v>62</v>
@@ -5072,7 +5076,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="20" t="s">
         <v>62</v>
@@ -5094,7 +5098,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>45094</v>
       </c>
@@ -5118,7 +5122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="20" t="s">
         <v>86</v>
@@ -5140,7 +5144,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>45110</v>
       </c>
@@ -5164,7 +5168,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
         <v>86</v>
@@ -5186,7 +5190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="20" t="s">
         <v>97</v>
@@ -5208,7 +5212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>45134</v>
       </c>
@@ -5232,9 +5236,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="20"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C71" s="13"/>
       <c r="D71" s="40"/>
       <c r="E71" s="9"/>
@@ -5243,14 +5251,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H71" s="40"/>
+      <c r="H71" s="40">
+        <v>2</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C72" s="43"/>
       <c r="D72" s="44"/>
       <c r="E72" s="49"/>
@@ -5259,10 +5273,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H72" s="44"/>
+      <c r="H72" s="44">
+        <v>1</v>
+      </c>
       <c r="I72" s="49"/>
       <c r="J72" s="12"/>
-      <c r="K72" s="15"/>
+      <c r="K72" s="50">
+        <v>45180</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5279,10 +5297,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5305,28 +5323,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -5339,7 +5357,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5368,7 +5386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>149.54</v>
       </c>
@@ -5392,7 +5410,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5407,10 +5425,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5430,7 +5448,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5456,7 +5474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5482,7 +5500,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5508,7 +5526,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5534,7 +5552,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5560,7 +5578,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5586,7 +5604,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5612,7 +5630,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5638,7 +5656,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5658,7 +5676,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5678,7 +5696,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5698,7 +5716,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5719,7 +5737,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5740,7 +5758,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5761,7 +5779,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5782,7 +5800,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5803,7 +5821,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5845,7 +5863,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5866,7 +5884,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5887,7 +5905,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5908,7 +5926,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5929,7 +5947,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5950,7 +5968,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5971,7 +5989,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5992,7 +6010,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -6013,7 +6031,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -6034,7 +6052,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -6055,7 +6073,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -6076,7 +6094,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -6097,7 +6115,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -6118,7 +6136,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -6127,7 +6145,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -6136,7 +6154,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -6145,7 +6163,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -6154,7 +6172,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6163,7 +6181,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6172,7 +6190,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6181,7 +6199,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6190,7 +6208,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6199,7 +6217,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6208,7 +6226,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6217,7 +6235,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6226,7 +6244,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6235,7 +6253,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6244,7 +6262,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6253,7 +6271,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6262,7 +6280,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6271,7 +6289,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6280,7 +6298,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6289,7 +6307,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6298,7 +6316,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6307,7 +6325,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6316,7 +6334,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6325,7 +6343,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6334,7 +6352,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6343,7 +6361,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6352,7 +6370,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6361,7 +6379,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6370,7 +6388,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6379,7 +6397,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1649,7 +1649,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,7 +1810,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1820,7 +1820,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3372,13 +3372,15 @@
         <v>45231</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="40"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="9"/>
@@ -3390,13 +3392,15 @@
         <v>45261</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="40"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="40"/>
       <c r="I87" s="9"/>
@@ -3698,7 +3702,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,8 +5343,12 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C75" s="13"/>
       <c r="D75" s="40"/>
       <c r="E75" s="9"/>
@@ -5352,21 +5360,23 @@
       <c r="H75" s="40"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="50"/>
+      <c r="K75" s="50">
+        <v>45296</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
